--- a/Lab1.xlsx
+++ b/Lab1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO251005\Desktop\Algorithmics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\GIT Asignaturas\Algorithmics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>n</t>
   </si>
@@ -44,13 +44,43 @@
     <t>x</t>
   </si>
   <si>
-    <t>Total  time:</t>
+    <t>VECTOR</t>
+  </si>
+  <si>
+    <t>VECTOR IN MILIS</t>
+  </si>
+  <si>
+    <t>DIAG</t>
+  </si>
+  <si>
+    <t>sum1Diagonal(t)</t>
+  </si>
+  <si>
+    <t>sum2Diagonal(t)</t>
+  </si>
+  <si>
+    <t>DIAG IN MILIS</t>
+  </si>
+  <si>
+    <t>As we can see in the graphs the vector has a complexity of O(n)</t>
+  </si>
+  <si>
+    <t>Explanation:</t>
+  </si>
+  <si>
+    <t>As we can see in the graphs the diagonal leads to a polinomical complexity of O(n^2)</t>
+  </si>
+  <si>
+    <t>Main Components:</t>
+  </si>
+  <si>
+    <t>This proccess is carried out by the CPU mostly, as memory acceses are almost always the same and the problem is to repeat the loop again and again</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,6 +127,2689 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vector in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> milis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34286431587355931"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10555543827799005"/>
+          <c:y val="0.1862841530054645"/>
+          <c:w val="0.7853471533216525"/>
+          <c:h val="0.46153822985241599"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$17:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>fillIn(t)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$23:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9157000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.510200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.8322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E863-4217-AE64-C5E1001492D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>sum(t)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.29005618543206396"/>
+                  <c:y val="4.7656751239428405E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$23:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4851000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.052300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E863-4217-AE64-C5E1001492D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$17:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>maximum(t)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.27641594672788666"/>
+                  <c:y val="-5.6858048993875768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$23:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1443000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.572700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.314700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E863-4217-AE64-C5E1001492D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="390051648"/>
+        <c:axId val="390045416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="390051648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390045416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390045416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390051648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.131200032221038E-2"/>
+          <c:y val="0.73263560804899375"/>
+          <c:w val="0.89055561149485474"/>
+          <c:h val="0.23958661417322835"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Diagonal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Milis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fillIn(t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$18:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.39E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5645</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3383000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9340000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A06A-44D1-80D4-66BA3FB5E35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum1Diagonal(t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$18:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4218000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.293200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A06A-44D1-80D4-66BA3FB5E35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum2Diagonal(t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3309000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5020000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A06A-44D1-80D4-66BA3FB5E35E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474829472"/>
+        <c:axId val="474830456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474829472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474830456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="474830456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474829472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -175,6 +2888,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -210,6 +2940,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,18 +3109,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -386,8 +3143,20 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -400,8 +3169,20 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -414,8 +3195,20 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
@@ -428,8 +3221,20 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1250</v>
       </c>
@@ -442,8 +3247,20 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>83</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>96</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6250</v>
       </c>
@@ -456,10 +3273,25 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>339</v>
+      </c>
+      <c r="H7">
+        <v>370</v>
+      </c>
+      <c r="I7">
+        <v>382</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31250</v>
+      </c>
+      <c r="B8">
+        <v>412</v>
       </c>
       <c r="C8">
         <f>100</f>
@@ -468,55 +3300,127 @@
       <c r="D8">
         <v>127</v>
       </c>
+      <c r="F8">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>1364</v>
+      </c>
+      <c r="H8">
+        <v>1551</v>
+      </c>
+      <c r="I8">
+        <v>1519</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>156250</v>
       </c>
+      <c r="B9">
+        <v>2040</v>
+      </c>
       <c r="C9">
         <v>488</v>
       </c>
       <c r="D9">
         <v>720</v>
       </c>
+      <c r="F9">
+        <v>192</v>
+      </c>
+      <c r="G9">
+        <v>5645</v>
+      </c>
+      <c r="H9">
+        <v>6476</v>
+      </c>
+      <c r="I9">
+        <v>6081</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>781250</v>
       </c>
+      <c r="B10">
+        <v>10845</v>
+      </c>
       <c r="C10">
         <v>2652</v>
       </c>
       <c r="D10">
         <v>3774</v>
       </c>
+      <c r="F10">
+        <v>384</v>
+      </c>
+      <c r="G10">
+        <v>23383</v>
+      </c>
+      <c r="H10">
+        <v>24218</v>
+      </c>
+      <c r="I10">
+        <v>23309</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3906250</v>
       </c>
+      <c r="B11">
+        <v>59157</v>
+      </c>
       <c r="C11">
         <v>14851</v>
       </c>
       <c r="D11">
         <v>21443</v>
       </c>
+      <c r="F11">
+        <v>768</v>
+      </c>
+      <c r="G11">
+        <v>99340</v>
+      </c>
+      <c r="H11">
+        <v>102932</v>
+      </c>
+      <c r="I11">
+        <v>95020</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19531250</v>
       </c>
+      <c r="B12">
+        <v>295102</v>
+      </c>
       <c r="C12">
         <v>82286</v>
       </c>
       <c r="D12">
         <v>105727</v>
       </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>97656250</v>
       </c>
+      <c r="B13">
+        <v>1778322</v>
+      </c>
       <c r="C13">
         <v>390523</v>
       </c>
@@ -524,184 +3428,386 @@
         <v>493147</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <f>G3*10^(-4)</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H18">
+        <f>H3*10^(-4)</f>
+        <v>1.3000000000000002E-3</v>
+      </c>
+      <c r="I18">
+        <f>I3*10^(-4)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="G14">
-        <f>SUM(C8:C13,D8:D13)</f>
-        <v>1115838</v>
+      <c r="G19">
+        <f>G4*10^(-4)</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="H19">
+        <f>H4*10^(-4)</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I19">
+        <f>I4*10^(-4)</f>
+        <v>6.0000000000000006E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f>G5*10^(-4)</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <f>H5*10^(-4)</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="I20">
+        <f>I5*10^(-4)</f>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1250</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D21" t="s">
         <v>5</v>
       </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <f>G6*10^(-4)</f>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <f>H6*10^(-4)</f>
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="I21">
+        <f>I6*10^(-4)</f>
+        <v>9.6000000000000009E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6250</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <f>G7*10^(-4)</f>
+        <v>3.39E-2</v>
+      </c>
+      <c r="H22">
+        <f>H7*10^(-4)</f>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="I22">
+        <f>I7*10^(-4)</f>
+        <v>3.8200000000000005E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>250</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1250</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6250</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>31250</v>
       </c>
-      <c r="C29">
+      <c r="B23">
+        <f>B8*10^(-4)</f>
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="C23">
         <f>C8*10^(-4)</f>
         <v>0.01</v>
       </c>
-      <c r="D29">
+      <c r="D23">
         <f>D8*10^(-4)</f>
         <v>1.2700000000000001E-2</v>
       </c>
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="G23">
+        <f>G8*10^(-4)</f>
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="H23">
+        <f>H8*10^(-4)</f>
+        <v>0.15510000000000002</v>
+      </c>
+      <c r="I23">
+        <f>I8*10^(-4)</f>
+        <v>0.15190000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>156250</v>
       </c>
-      <c r="C30">
+      <c r="B24">
+        <f>B9*10^(-4)</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="C24">
         <f>C9*10^(-4)</f>
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="D30">
+      <c r="D24">
         <f>D9*10^(-4)</f>
         <v>7.2000000000000008E-2</v>
       </c>
+      <c r="F24">
+        <v>192</v>
+      </c>
+      <c r="G24">
+        <f>G9*10^(-4)</f>
+        <v>0.5645</v>
+      </c>
+      <c r="H24">
+        <f>H9*10^(-4)</f>
+        <v>0.64760000000000006</v>
+      </c>
+      <c r="I24">
+        <f>I9*10^(-4)</f>
+        <v>0.60809999999999997</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>781250</v>
       </c>
-      <c r="C31">
+      <c r="B25">
+        <f>B10*10^(-4)</f>
+        <v>1.0845</v>
+      </c>
+      <c r="C25">
         <f>C10*10^(-4)</f>
         <v>0.26519999999999999</v>
       </c>
-      <c r="D31">
+      <c r="D25">
         <f>D10*10^(-4)</f>
         <v>0.37740000000000001</v>
       </c>
+      <c r="F25">
+        <v>384</v>
+      </c>
+      <c r="G25">
+        <f>G10*10^(-4)</f>
+        <v>2.3383000000000003</v>
+      </c>
+      <c r="H25">
+        <f>H10*10^(-4)</f>
+        <v>2.4218000000000002</v>
+      </c>
+      <c r="I25">
+        <f>I10*10^(-4)</f>
+        <v>2.3309000000000002</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>3906250</v>
       </c>
-      <c r="C32">
+      <c r="B26">
+        <f>B11*10^(-4)</f>
+        <v>5.9157000000000002</v>
+      </c>
+      <c r="C26">
         <f>C11*10^(-4)</f>
         <v>1.4851000000000001</v>
       </c>
-      <c r="D32">
+      <c r="D26">
         <f>D11*10^(-4)</f>
         <v>2.1443000000000003</v>
       </c>
+      <c r="F26">
+        <v>768</v>
+      </c>
+      <c r="G26">
+        <f>G11*10^(-4)</f>
+        <v>9.9340000000000011</v>
+      </c>
+      <c r="H26">
+        <f>H11*10^(-4)</f>
+        <v>10.293200000000001</v>
+      </c>
+      <c r="I26">
+        <f>I11*10^(-4)</f>
+        <v>9.5020000000000007</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>19531250</v>
       </c>
-      <c r="C33">
+      <c r="B27">
+        <f>B12*10^(-4)</f>
+        <v>29.510200000000001</v>
+      </c>
+      <c r="C27">
         <f>C12*10^(-4)</f>
         <v>8.2286000000000001</v>
       </c>
-      <c r="D33">
+      <c r="D27">
         <f>D12*10^(-4)</f>
         <v>10.572700000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>97656250</v>
       </c>
-      <c r="C34">
+      <c r="B28">
+        <f>B13*10^(-4)</f>
+        <v>177.8322</v>
+      </c>
+      <c r="C28">
         <f>C13*10^(-4)</f>
         <v>39.052300000000002</v>
       </c>
-      <c r="D34">
+      <c r="D28">
         <f>D13*10^(-4)</f>
         <v>49.314700000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab1.xlsx
+++ b/Lab1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\GIT Asignaturas\Algorithmics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UO251005\Desktop\Algorithmics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -206,7 +206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -293,6 +293,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -318,7 +319,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -378,7 +379,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E863-4217-AE64-C5E1001492D3}"/>
             </c:ext>
@@ -482,7 +483,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -542,7 +543,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E863-4217-AE64-C5E1001492D3}"/>
             </c:ext>
@@ -646,7 +647,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -706,7 +707,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E863-4217-AE64-C5E1001492D3}"/>
             </c:ext>
@@ -720,11 +721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390051648"/>
-        <c:axId val="390045416"/>
+        <c:axId val="171372928"/>
+        <c:axId val="171373488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390051648"/>
+        <c:axId val="171372928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,15 +779,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390045416"/>
+        <c:crossAx val="171373488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390045416"/>
+        <c:axId val="171373488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,10 +841,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390051648"/>
+        <c:crossAx val="171372928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,7 +893,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -922,7 +923,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -934,7 +935,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -978,6 +979,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1003,7 +1005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1124,7 +1126,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A06A-44D1-80D4-66BA3FB5E35E}"/>
             </c:ext>
@@ -1183,6 +1185,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1208,7 +1211,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1301,7 +1304,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A06A-44D1-80D4-66BA3FB5E35E}"/>
             </c:ext>
@@ -1418,7 +1421,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A06A-44D1-80D4-66BA3FB5E35E}"/>
             </c:ext>
@@ -1432,11 +1435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474829472"/>
-        <c:axId val="474830456"/>
+        <c:axId val="172207952"/>
+        <c:axId val="172208512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474829472"/>
+        <c:axId val="172207952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,15 +1493,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474830456"/>
+        <c:crossAx val="172208512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474830456"/>
+        <c:axId val="172208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,10 +1555,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474829472"/>
+        <c:crossAx val="172207952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1569,6 +1572,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,7 +1598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1624,7 +1628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2787,8 +2791,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2888,23 +2892,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2940,23 +2927,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3111,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,15 +3461,15 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <f>G3*10^(-4)</f>
+        <f t="shared" ref="G18:I26" si="0">G3*10^(-4)</f>
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H18">
-        <f>H3*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>1.3000000000000002E-3</v>
       </c>
       <c r="I18">
-        <f>I3*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -3520,15 +3490,15 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <f>G4*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000006E-4</v>
       </c>
       <c r="H19">
-        <f>H4*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I19">
-        <f>I4*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000006E-4</v>
       </c>
     </row>
@@ -3549,15 +3519,15 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <f>G5*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="H20">
-        <f>H5*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.3E-3</v>
       </c>
       <c r="I20">
-        <f>I5*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -3578,15 +3548,15 @@
         <v>24</v>
       </c>
       <c r="G21">
-        <f>G6*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="H21">
-        <f>H6*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="I21">
-        <f>I6*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000009E-3</v>
       </c>
     </row>
@@ -3607,15 +3577,15 @@
         <v>48</v>
       </c>
       <c r="G22">
-        <f>G7*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>3.39E-2</v>
       </c>
       <c r="H22">
-        <f>H7*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="I22">
-        <f>I7*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>3.8200000000000005E-2</v>
       </c>
     </row>
@@ -3624,30 +3594,30 @@
         <v>31250</v>
       </c>
       <c r="B23">
-        <f>B8*10^(-4)</f>
+        <f t="shared" ref="B23:D28" si="1">B8*10^(-4)</f>
         <v>4.1200000000000001E-2</v>
       </c>
       <c r="C23">
-        <f>C8*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="D23">
-        <f>D8*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>1.2700000000000001E-2</v>
       </c>
       <c r="F23">
         <v>96</v>
       </c>
       <c r="G23">
-        <f>G8*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.13639999999999999</v>
       </c>
       <c r="H23">
-        <f>H8*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.15510000000000002</v>
       </c>
       <c r="I23">
-        <f>I8*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.15190000000000001</v>
       </c>
     </row>
@@ -3656,30 +3626,30 @@
         <v>156250</v>
       </c>
       <c r="B24">
-        <f>B9*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>0.20400000000000001</v>
       </c>
       <c r="C24">
-        <f>C9*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="D24">
-        <f>D9*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>7.2000000000000008E-2</v>
       </c>
       <c r="F24">
         <v>192</v>
       </c>
       <c r="G24">
-        <f>G9*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.5645</v>
       </c>
       <c r="H24">
-        <f>H9*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.64760000000000006</v>
       </c>
       <c r="I24">
-        <f>I9*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>0.60809999999999997</v>
       </c>
     </row>
@@ -3688,30 +3658,30 @@
         <v>781250</v>
       </c>
       <c r="B25">
-        <f>B10*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>1.0845</v>
       </c>
       <c r="C25">
-        <f>C10*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>0.26519999999999999</v>
       </c>
       <c r="D25">
-        <f>D10*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>0.37740000000000001</v>
       </c>
       <c r="F25">
         <v>384</v>
       </c>
       <c r="G25">
-        <f>G10*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.3383000000000003</v>
       </c>
       <c r="H25">
-        <f>H10*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.4218000000000002</v>
       </c>
       <c r="I25">
-        <f>I10*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>2.3309000000000002</v>
       </c>
     </row>
@@ -3720,30 +3690,30 @@
         <v>3906250</v>
       </c>
       <c r="B26">
-        <f>B11*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>5.9157000000000002</v>
       </c>
       <c r="C26">
-        <f>C11*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>1.4851000000000001</v>
       </c>
       <c r="D26">
-        <f>D11*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>2.1443000000000003</v>
       </c>
       <c r="F26">
         <v>768</v>
       </c>
       <c r="G26">
-        <f>G11*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>9.9340000000000011</v>
       </c>
       <c r="H26">
-        <f>H11*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>10.293200000000001</v>
       </c>
       <c r="I26">
-        <f>I11*10^(-4)</f>
+        <f t="shared" si="0"/>
         <v>9.5020000000000007</v>
       </c>
     </row>
@@ -3752,15 +3722,15 @@
         <v>19531250</v>
       </c>
       <c r="B27">
-        <f>B12*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>29.510200000000001</v>
       </c>
       <c r="C27">
-        <f>C12*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>8.2286000000000001</v>
       </c>
       <c r="D27">
-        <f>D12*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>10.572700000000001</v>
       </c>
     </row>
@@ -3769,15 +3739,15 @@
         <v>97656250</v>
       </c>
       <c r="B28">
-        <f>B13*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>177.8322</v>
       </c>
       <c r="C28">
-        <f>C13*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>39.052300000000002</v>
       </c>
       <c r="D28">
-        <f>D13*10^(-4)</f>
+        <f t="shared" si="1"/>
         <v>49.314700000000002</v>
       </c>
     </row>
